--- a/*12-28-25 to 01-03-26 Madison Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA75"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1598,12 +1598,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 1</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1659,12 +1659,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>@ Store, Until 1</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1855,12 +1855,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Trainer</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>@ Store, Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2055,12 +2055,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Louisa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 1</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -2116,12 +2116,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Louisa</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>@ Store, Until 1</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2309,12 +2309,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Trey</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, New, 1st Day, work w/ Katie</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Trey</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>@ Store, New, 1st Day, work w/ Katie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -2433,21 +2433,9 @@
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
@@ -2575,7 +2563,11 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:00 AM START </t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -2623,7 +2615,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2660,7 +2652,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>BP CONTACT IS VAL</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2705,7 +2697,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>BP CONTACT IS VAL</t>
+          <t>BP VIKING VILLAGE EXPRESS MART, REEDSBURG</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2750,7 +2742,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>BP VIKING VILLAGE EXPRESS MART, REEDSBURG</t>
+          <t>10 VIKING DR</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2807,7 +2799,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>10 VIKING DR</t>
+          <t>https://maps.app.goo.gl/G58QvFfnWyxnFWZz7</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2862,11 +2854,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/G58QvFfnWyxnFWZz7</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -2906,9 +2894,21 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2947,21 +2947,9 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -3052,7 +3040,11 @@
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:00 AM START  </t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -3099,7 +3091,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START  </t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3171,7 +3163,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>VIKING LIQUOR, REEDSBURG</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3228,7 +3220,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>VIKING LIQUOR, REEDSBURG</t>
+          <t>1625 E MAIN ST</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3294,7 +3286,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1625 E MAIN ST</t>
+          <t>https://maps.app.goo.gl/VYwm2VtFjjiYDHN97</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3327,7 +3319,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/VYwm2VtFjjiYDHN97</t>
+          <t xml:space="preserve">*IL Meet is 4:00 am at IL office </t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3360,7 +3352,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 4:00 am at IL office </t>
+          <t>PER ALISHA - PLEASE KEEP ALL DISPLAYS BROKEN OUT INTO SMALLER SECTIONS</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3399,11 +3391,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>PER ALISHA - PLEASE KEEP ALL DISPLAYS BROKEN OUT INTO SMALLER SECTIONS</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -3439,9 +3427,21 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3478,19 +3478,15 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -3527,15 +3523,20 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -3572,18 +3573,17 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t xml:space="preserve">@ Store  </t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -3618,17 +3618,18 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store  </t>
+          <t>Driver, 1/2
+Camry 3</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -3673,22 +3674,9 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -3762,7 +3750,11 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -3797,7 +3789,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3830,7 +3822,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #60, LOGAN AVE MOBIL, BELVIDERE</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3863,7 +3855,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>KELLEY #60, LOGAN AVE MOBIL, BELVIDERE</t>
+          <t>1776 LOGAN AVE</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3896,7 +3888,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1776 LOGAN AVE</t>
+          <t>https://goo.gl/maps/GwirBabPWYB2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3941,7 +3933,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GwirBabPWYB2</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3984,11 +3976,7 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -4028,9 +4016,21 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -4059,19 +4059,15 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -4100,12 +4096,12 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -4137,12 +4133,12 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -4174,12 +4170,12 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -4211,12 +4207,12 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -4241,43 +4237,6 @@
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/*12-28-25 to 01-03-26 Madison Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Madison Schedule.xlsx
@@ -1733,7 +1733,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>FULL STORE RESET-REMAPPED</t>
+          <t>FULL RESET-REMAPPED</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>

--- a/*12-28-25 to 01-03-26 Madison Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Madison Schedule.xlsx
@@ -1313,7 +1313,7 @@
       <c r="W18" t="inlineStr">
         <is>
           <t>Driver,
-Camry 3</t>
+Gray Van</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
       <c r="O36" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3,
+Gray Van,
 Equip</t>
         </is>
       </c>
@@ -2591,7 +2591,7 @@
       <c r="O37" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Gray Van</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>

--- a/*12-28-25 to 01-03-26 Madison Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Madison Schedule.xlsx
@@ -1876,7 +1876,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store, Camry 3, Equip</t>
+          <t>@ Store, Silver Van, Equip</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -2952,7 +2952,11 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Rockford cars - Red Camry oil, Camry 3 check engine light</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -2985,7 +2989,11 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>*Ashley and Qiana dropped Camry 3 at Buttita Mon already*</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -3048,7 +3056,11 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>

--- a/*12-28-25 to 01-03-26 Madison Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Madison Schedule.xlsx
@@ -2010,7 +2010,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>

--- a/*12-28-25 to 01-03-26 Madison Schedule.xlsx
+++ b/*12-28-25 to 01-03-26 Madison Schedule.xlsx
@@ -3784,7 +3784,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Enter front door of Clinic - across the street from hospital -Thane will meet you at the door. 715-579-7308</t>
+          <t>Enter front door of Clinic - across the street from Hospital -Thane will meet you at the door. 715-579-7308</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
